--- a/P1001-001 - 16bit CPU/P1001-001-005-320 - Controller Flash/DIM1001-001-005-320 - Controller Flash.xlsx
+++ b/P1001-001 - 16bit CPU/P1001-001-005-320 - Controller Flash/DIM1001-001-005-320 - Controller Flash.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\JimsDesign\P1001-16bit-CPU\P1001-001 - 16bit CPU\P1001-001-005-320 - Controller Flash\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D7819D-32BC-461B-9906-58CB9AFBA1D0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B0BECE-3F24-40B0-896E-9BE5137640E8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="48">
   <si>
     <t>BoardWidth</t>
   </si>
@@ -85,6 +85,96 @@
   </si>
   <si>
     <t>Top5</t>
+  </si>
+  <si>
+    <t>Control1BankA</t>
+  </si>
+  <si>
+    <t>Control1BankC</t>
+  </si>
+  <si>
+    <t>Control2PRog</t>
+  </si>
+  <si>
+    <t>Contr2ProgSide</t>
+  </si>
+  <si>
+    <t>Control2AddrTop</t>
+  </si>
+  <si>
+    <t>Control2AddMid</t>
+  </si>
+  <si>
+    <t>ContFlashBankAX</t>
+  </si>
+  <si>
+    <t>ContFlashBankAY</t>
+  </si>
+  <si>
+    <t>ContFlashBankBX</t>
+  </si>
+  <si>
+    <t>ContFlashBankCX</t>
+  </si>
+  <si>
+    <t>ContFlashProgX</t>
+  </si>
+  <si>
+    <t>ContFlashProgY</t>
+  </si>
+  <si>
+    <t>ContFlashAddrX</t>
+  </si>
+  <si>
+    <t>ContFlashAddrY</t>
+  </si>
+  <si>
+    <t>BankAX</t>
+  </si>
+  <si>
+    <t>BankAY</t>
+  </si>
+  <si>
+    <t>BankBX</t>
+  </si>
+  <si>
+    <t>BankCX</t>
+  </si>
+  <si>
+    <t>ProgX</t>
+  </si>
+  <si>
+    <t>AddrX</t>
+  </si>
+  <si>
+    <t>AddrY</t>
+  </si>
+  <si>
+    <t>ProgY</t>
+  </si>
+  <si>
+    <t>ControllerBankAX</t>
+  </si>
+  <si>
+    <t>ControllerBankAY</t>
+  </si>
+  <si>
+    <t>ControllerBankBX</t>
+  </si>
+  <si>
+    <t>ControllerBankCX</t>
+  </si>
+  <si>
+    <t>ControllerProgX</t>
+  </si>
+  <si>
+    <t>ControllerProgY</t>
+  </si>
+  <si>
+    <t>ControllerAddrX</t>
+  </si>
+  <si>
+    <t>ControllerAddrY</t>
   </si>
 </sst>
 </file>
@@ -402,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -610,6 +700,312 @@
         <v>2</v>
       </c>
     </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <f>100-B7*8</f>
+        <v>79.680000000000007</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <f>100+8*B7</f>
+        <v>120.32</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <f>B16-B13+100</f>
+        <v>134.29000000000002</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <f>B18-B7*2.5</f>
+        <v>73.330000000000013</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <f>B20+B7*0.5</f>
+        <v>135.56000000000003</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <f>B21+1.5*B7+10*B7</f>
+        <v>102.54000000000002</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>30.16</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>4.54</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>50.48</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>70.8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>23.81</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>25.46</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>53.02</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>26.73</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <f>B26-B24</f>
+        <v>20.319999999999997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <f>B27-B24</f>
+        <v>40.64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36">
+        <f>B28-B24</f>
+        <v>-6.3500000000000014</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37">
+        <f>B29-B25</f>
+        <v>20.92</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <f>B30-B24</f>
+        <v>22.860000000000003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <f>B31-B25</f>
+        <v>22.19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42">
+        <f>B40+B34</f>
+        <v>100.32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43">
+        <f>B40+B35</f>
+        <v>120.64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44">
+        <f>B40+B36</f>
+        <v>73.650000000000006</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45">
+        <f>B41+B37</f>
+        <v>120.92</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46">
+        <f>B40+B38</f>
+        <v>102.86</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47">
+        <f>B41+B39</f>
+        <v>122.19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/P1001-001 - 16bit CPU/P1001-001-005-320 - Controller Flash/DIM1001-001-005-320 - Controller Flash.xlsx
+++ b/P1001-001 - 16bit CPU/P1001-001-005-320 - Controller Flash/DIM1001-001-005-320 - Controller Flash.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\JimsDesign\P1001-16bit-CPU\P1001-001 - 16bit CPU\P1001-001-005-320 - Controller Flash\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B0BECE-3F24-40B0-896E-9BE5137640E8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F6BC37-605C-49D0-8D96-4052C9C91E27}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="56">
   <si>
     <t>BoardWidth</t>
   </si>
@@ -175,6 +175,30 @@
   </si>
   <si>
     <t>ControllerAddrY</t>
+  </si>
+  <si>
+    <t>RAMBankAX</t>
+  </si>
+  <si>
+    <t>RAMBankAY</t>
+  </si>
+  <si>
+    <t>RAMBankBX</t>
+  </si>
+  <si>
+    <t>RAMProgX</t>
+  </si>
+  <si>
+    <t>RAMProgY</t>
+  </si>
+  <si>
+    <t>RAMLowX</t>
+  </si>
+  <si>
+    <t>RAMMidX</t>
+  </si>
+  <si>
+    <t>RAMHighX</t>
   </si>
 </sst>
 </file>
@@ -492,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -890,6 +914,9 @@
         <f>B26-B24</f>
         <v>20.319999999999997</v>
       </c>
+      <c r="C34" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
@@ -899,6 +926,9 @@
         <f>B27-B24</f>
         <v>40.64</v>
       </c>
+      <c r="C35" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
@@ -908,6 +938,9 @@
         <f>B28-B24</f>
         <v>-6.3500000000000014</v>
       </c>
+      <c r="C36" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
@@ -917,6 +950,9 @@
         <f>B29-B25</f>
         <v>20.92</v>
       </c>
+      <c r="C37" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
@@ -926,6 +962,9 @@
         <f>B30-B24</f>
         <v>22.860000000000003</v>
       </c>
+      <c r="C38" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
@@ -935,6 +974,9 @@
         <f>B31-B25</f>
         <v>22.19</v>
       </c>
+      <c r="C39" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
@@ -943,6 +985,9 @@
       <c r="B40">
         <v>80</v>
       </c>
+      <c r="C40" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
@@ -951,6 +996,9 @@
       <c r="B41">
         <v>100</v>
       </c>
+      <c r="C41" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
@@ -960,6 +1008,9 @@
         <f>B40+B34</f>
         <v>100.32</v>
       </c>
+      <c r="C42" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
@@ -969,6 +1020,9 @@
         <f>B40+B35</f>
         <v>120.64</v>
       </c>
+      <c r="C43" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
@@ -978,6 +1032,9 @@
         <f>B40+B36</f>
         <v>73.650000000000006</v>
       </c>
+      <c r="C44" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
@@ -987,6 +1044,9 @@
         <f>B41+B37</f>
         <v>120.92</v>
       </c>
+      <c r="C45" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
@@ -996,6 +1056,9 @@
         <f>B40+B38</f>
         <v>102.86</v>
       </c>
+      <c r="C46" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
@@ -1004,6 +1067,103 @@
       <c r="B47">
         <f>B41+B39</f>
         <v>122.19</v>
+      </c>
+      <c r="C47" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48">
+        <v>60</v>
+      </c>
+      <c r="C48" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49">
+        <v>6</v>
+      </c>
+      <c r="C49" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50">
+        <f>B48+B34</f>
+        <v>80.319999999999993</v>
+      </c>
+      <c r="C50" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51">
+        <f>B48+B36</f>
+        <v>53.65</v>
+      </c>
+      <c r="C51" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52">
+        <f>B49+B37</f>
+        <v>26.92</v>
+      </c>
+      <c r="C52" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53">
+        <f>B51+B7*1.5+4*B7</f>
+        <v>67.62</v>
+      </c>
+      <c r="C53" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54">
+        <f>B53+8*B7</f>
+        <v>87.94</v>
+      </c>
+      <c r="C54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55">
+        <f>B54+8*B7</f>
+        <v>108.25999999999999</v>
+      </c>
+      <c r="C55" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/P1001-001 - 16bit CPU/P1001-001-005-320 - Controller Flash/DIM1001-001-005-320 - Controller Flash.xlsx
+++ b/P1001-001 - 16bit CPU/P1001-001-005-320 - Controller Flash/DIM1001-001-005-320 - Controller Flash.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\JimsDesign\P1001-16bit-CPU\P1001-001 - 16bit CPU\P1001-001-005-320 - Controller Flash\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F6BC37-605C-49D0-8D96-4052C9C91E27}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5943C4A8-01CC-4A94-A0B0-8CFC007E53D7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="58">
   <si>
     <t>BoardWidth</t>
   </si>
@@ -199,6 +199,12 @@
   </si>
   <si>
     <t>RAMHighX</t>
+  </si>
+  <si>
+    <t>RAMBankCX</t>
+  </si>
+  <si>
+    <t>RAMRightX</t>
   </si>
 </sst>
 </file>
@@ -516,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1166,6 +1172,30 @@
         <v>2</v>
       </c>
     </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56">
+        <f>B50-B48+B50</f>
+        <v>100.63999999999999</v>
+      </c>
+      <c r="C56" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57">
+        <f>B55-2.5*B7</f>
+        <v>101.91</v>
+      </c>
+      <c r="C57" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
